--- a/xlsxcomp/bin/Debug/export.xlsx
+++ b/xlsxcomp/bin/Debug/export.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>unit</t>
   </si>
@@ -175,6 +175,21 @@
   </si>
   <si>
     <t>13000</t>
+  </si>
+  <si>
+    <t>10-PT-114</t>
+  </si>
+  <si>
+    <t>Duplicated</t>
+  </si>
+  <si>
+    <t>duplicated</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>empty key</t>
   </si>
 </sst>
 </file>
@@ -238,7 +253,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -533,6 +548,40 @@
         <v>37</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
